--- a/MIRO/images/transfer_of_credentials_via_UL_tag.xlsx
+++ b/MIRO/images/transfer_of_credentials_via_UL_tag.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Computer_science\Projects\Embedded\MIRO\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{37A8D304-F0AB-4AF4-AF14-E15396299893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{927B1EF4-A11B-42B6-A847-FB972628C460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="984" windowWidth="23040" windowHeight="12204" xr2:uid="{D94C9922-FBD0-4F55-B95A-3AE65E15E731}"/>
+    <workbookView xWindow="16740" yWindow="1332" windowWidth="12228" windowHeight="12204" xr2:uid="{D94C9922-FBD0-4F55-B95A-3AE65E15E731}"/>
   </bookViews>
   <sheets>
     <sheet name="vizualizáció" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="73">
   <si>
     <t>M</t>
   </si>
@@ -207,12 +207,72 @@
   <si>
     <t>Lock bytes</t>
   </si>
+  <si>
+    <t>BLOCK_SIZE</t>
+  </si>
+  <si>
+    <t>i / BLOCK_SIZE</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>_</t>
+  </si>
+  <si>
+    <t>bl0</t>
+  </si>
+  <si>
+    <t>bl1</t>
+  </si>
+  <si>
+    <t>bl2</t>
+  </si>
+  <si>
+    <t>bl3</t>
+  </si>
+  <si>
+    <t>Precision writing</t>
+  </si>
+  <si>
+    <t>START_BYTE</t>
+  </si>
+  <si>
+    <t>(i % BLOCK_SIZE + START_BYTE) % BLOCK_SIZE</t>
+  </si>
+  <si>
+    <t>bloc:</t>
+  </si>
+  <si>
+    <t>byte:</t>
+  </si>
+  <si>
+    <t>for i = 0; i &lt; len; i++</t>
+  </si>
+  <si>
+    <t>C0</t>
+  </si>
+  <si>
+    <t>A8</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>5B</t>
+  </si>
+  <si>
+    <t>DB</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -269,6 +329,13 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -720,36 +787,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -778,7 +818,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -806,15 +845,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -848,7 +878,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -873,8 +903,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -936,6 +966,58 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1251,427 +1333,427 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D70DA73-EEB0-4702-8F82-F049EC93821B}">
-  <dimension ref="A1:AN33"/>
+  <dimension ref="A1:AN47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AF16" sqref="AF16"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.21875" defaultRowHeight="16.05" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="30" max="30" width="3.21875" style="15"/>
-    <col min="31" max="35" width="3.21875" style="12"/>
+    <col min="30" max="30" width="3.21875" style="6"/>
+    <col min="31" max="35" width="3.21875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="80"/>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
-      <c r="W1" s="80"/>
-      <c r="X1" s="80"/>
+      <c r="A1" s="67"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
+      <c r="W1" s="67"/>
+      <c r="X1" s="67"/>
     </row>
     <row r="2" spans="1:39" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="80"/>
-      <c r="B2" s="14">
+      <c r="A2" s="67"/>
+      <c r="B2" s="5">
         <v>0</v>
       </c>
-      <c r="C2" s="80"/>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="67"/>
+      <c r="D2" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="14">
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="5">
         <v>0</v>
       </c>
-      <c r="K2" s="80"/>
-      <c r="L2" s="2" t="s">
+      <c r="K2" s="67"/>
+      <c r="L2" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="80"/>
-      <c r="Q2" s="80"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="80"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="80"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="72"/>
+      <c r="O2" s="73"/>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="67"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="67"/>
+      <c r="T2" s="71"/>
+      <c r="U2" s="72"/>
+      <c r="V2" s="72"/>
+      <c r="W2" s="73"/>
+      <c r="X2" s="67"/>
     </row>
     <row r="3" spans="1:39" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="80"/>
-      <c r="B3" s="14">
+      <c r="A3" s="67"/>
+      <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="80"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="14">
+      <c r="C3" s="67"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="5">
         <v>1</v>
       </c>
-      <c r="K3" s="80"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="80"/>
-      <c r="Q3" s="80"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="80"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="7"/>
-      <c r="X3" s="80"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="75"/>
+      <c r="N3" s="75"/>
+      <c r="O3" s="76"/>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="67"/>
+      <c r="T3" s="74"/>
+      <c r="U3" s="75"/>
+      <c r="V3" s="75"/>
+      <c r="W3" s="76"/>
+      <c r="X3" s="67"/>
     </row>
     <row r="4" spans="1:39" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="80"/>
-      <c r="B4" s="14">
+      <c r="A4" s="67"/>
+      <c r="B4" s="5">
         <v>2</v>
       </c>
-      <c r="C4" s="80"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="14">
+      <c r="C4" s="67"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="5">
         <v>2</v>
       </c>
-      <c r="K4" s="80"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="80"/>
-      <c r="Q4" s="80"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="80"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
-      <c r="W4" s="7"/>
-      <c r="X4" s="80"/>
+      <c r="K4" s="67"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="75"/>
+      <c r="O4" s="76"/>
+      <c r="P4" s="67"/>
+      <c r="Q4" s="67"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="67"/>
+      <c r="T4" s="74"/>
+      <c r="U4" s="75"/>
+      <c r="V4" s="75"/>
+      <c r="W4" s="76"/>
+      <c r="X4" s="67"/>
     </row>
     <row r="5" spans="1:39" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="80"/>
-      <c r="B5" s="14">
+      <c r="A5" s="67"/>
+      <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="80"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="80"/>
-      <c r="I5" s="80"/>
-      <c r="J5" s="14">
+      <c r="C5" s="67"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="5">
         <v>3</v>
       </c>
-      <c r="K5" s="80"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="80"/>
-      <c r="Q5" s="80"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="80"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="9"/>
-      <c r="V5" s="9"/>
-      <c r="W5" s="10"/>
-      <c r="X5" s="80"/>
+      <c r="K5" s="67"/>
+      <c r="L5" s="77"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="79"/>
+      <c r="P5" s="67"/>
+      <c r="Q5" s="67"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="67"/>
+      <c r="T5" s="77"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
+      <c r="W5" s="79"/>
+      <c r="X5" s="67"/>
     </row>
     <row r="6" spans="1:39" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="80"/>
-      <c r="B6" s="80"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="80"/>
-      <c r="I6" s="80"/>
-      <c r="J6" s="80"/>
-      <c r="K6" s="80"/>
-      <c r="L6" s="80"/>
-      <c r="M6" s="80"/>
-      <c r="N6" s="80"/>
-      <c r="O6" s="80"/>
-      <c r="P6" s="80"/>
-      <c r="Q6" s="80"/>
-      <c r="R6" s="80"/>
-      <c r="S6" s="80"/>
-      <c r="T6" s="80"/>
-      <c r="U6" s="80"/>
-      <c r="V6" s="80"/>
-      <c r="W6" s="80"/>
-      <c r="X6" s="80"/>
+      <c r="A6" s="67"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
+      <c r="L6" s="67"/>
+      <c r="M6" s="67"/>
+      <c r="N6" s="67"/>
+      <c r="O6" s="67"/>
+      <c r="P6" s="67"/>
+      <c r="Q6" s="67"/>
+      <c r="R6" s="67"/>
+      <c r="S6" s="67"/>
+      <c r="T6" s="67"/>
+      <c r="U6" s="67"/>
+      <c r="V6" s="67"/>
+      <c r="W6" s="67"/>
+      <c r="X6" s="67"/>
     </row>
     <row r="7" spans="1:39" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="80"/>
-      <c r="B7" s="14">
+      <c r="A7" s="67"/>
+      <c r="B7" s="5">
         <v>4</v>
       </c>
-      <c r="C7" s="80"/>
-      <c r="D7" s="16" t="s">
+      <c r="C7" s="67"/>
+      <c r="D7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="80"/>
-      <c r="I7" s="80"/>
-      <c r="J7" s="14">
+      <c r="H7" s="67"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="5">
         <v>4</v>
       </c>
-      <c r="K7" s="80"/>
-      <c r="L7" s="16" t="s">
+      <c r="K7" s="67"/>
+      <c r="L7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="M7" s="16" t="s">
+      <c r="M7" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="N7" s="16" t="s">
+      <c r="N7" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="O7" s="16" t="s">
+      <c r="O7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="P7" s="80"/>
-      <c r="Q7" s="80"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="80"/>
-      <c r="T7" s="16"/>
-      <c r="U7" s="16"/>
-      <c r="V7" s="16"/>
-      <c r="W7" s="16"/>
-      <c r="X7" s="80"/>
+      <c r="P7" s="67"/>
+      <c r="Q7" s="67"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="67"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="67"/>
     </row>
     <row r="8" spans="1:39" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="80"/>
-      <c r="B8" s="14">
+      <c r="A8" s="67"/>
+      <c r="B8" s="5">
         <v>5</v>
       </c>
-      <c r="C8" s="80"/>
-      <c r="D8" s="16" t="s">
+      <c r="C8" s="67"/>
+      <c r="D8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="80"/>
-      <c r="I8" s="80"/>
-      <c r="J8" s="14">
+      <c r="H8" s="67"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="5">
         <v>5</v>
       </c>
-      <c r="K8" s="80"/>
-      <c r="L8" s="16" t="s">
+      <c r="K8" s="67"/>
+      <c r="L8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="M8" s="16" t="s">
+      <c r="M8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="N8" s="16" t="s">
+      <c r="N8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="O8" s="16" t="s">
+      <c r="O8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="P8" s="80"/>
-      <c r="Q8" s="80"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="80"/>
-      <c r="T8" s="16"/>
-      <c r="U8" s="16"/>
-      <c r="V8" s="16"/>
-      <c r="W8" s="16"/>
-      <c r="X8" s="80"/>
+      <c r="P8" s="67"/>
+      <c r="Q8" s="67"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="67"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="67"/>
     </row>
     <row r="9" spans="1:39" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="80"/>
-      <c r="B9" s="14">
+      <c r="A9" s="67"/>
+      <c r="B9" s="5">
         <v>6</v>
       </c>
-      <c r="C9" s="80"/>
-      <c r="D9" s="17" t="s">
+      <c r="C9" s="67"/>
+      <c r="D9" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="34" t="s">
+      <c r="E9" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="80"/>
-      <c r="I9" s="80"/>
-      <c r="J9" s="14">
+      <c r="H9" s="67"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="5">
         <v>6</v>
       </c>
-      <c r="K9" s="80"/>
-      <c r="L9" s="17" t="s">
+      <c r="K9" s="67"/>
+      <c r="L9" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="M9" s="34" t="s">
+      <c r="M9" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="N9" s="16" t="s">
+      <c r="N9" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="O9" s="16" t="s">
+      <c r="O9" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="P9" s="80"/>
-      <c r="Q9" s="80"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="80"/>
-      <c r="T9" s="17"/>
-      <c r="U9" s="34"/>
-      <c r="V9" s="16"/>
-      <c r="W9" s="16"/>
-      <c r="X9" s="80"/>
+      <c r="P9" s="67"/>
+      <c r="Q9" s="67"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="67"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="21"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="67"/>
       <c r="AB9" s="1"/>
       <c r="AC9" s="1"/>
-      <c r="AD9" s="13"/>
-      <c r="AE9" s="11"/>
-      <c r="AF9" s="11"/>
-      <c r="AG9" s="11"/>
-      <c r="AH9" s="11"/>
-      <c r="AI9" s="11"/>
+      <c r="AD9" s="4"/>
+      <c r="AE9" s="2"/>
+      <c r="AF9" s="2"/>
+      <c r="AG9" s="2"/>
+      <c r="AH9" s="2"/>
+      <c r="AI9" s="2"/>
       <c r="AJ9" s="1"/>
       <c r="AK9" s="1"/>
       <c r="AL9" s="1"/>
       <c r="AM9" s="1"/>
     </row>
     <row r="10" spans="1:39" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="80"/>
-      <c r="B10" s="14">
+      <c r="A10" s="67"/>
+      <c r="B10" s="5">
         <v>7</v>
       </c>
-      <c r="C10" s="80"/>
-      <c r="D10" s="16" t="s">
+      <c r="C10" s="67"/>
+      <c r="D10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="80"/>
-      <c r="I10" s="80"/>
-      <c r="J10" s="14">
+      <c r="H10" s="67"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="5">
         <v>7</v>
       </c>
-      <c r="K10" s="80"/>
-      <c r="L10" s="16" t="s">
+      <c r="K10" s="67"/>
+      <c r="L10" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="M10" s="16" t="s">
+      <c r="M10" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="N10" s="16" t="s">
+      <c r="N10" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="O10" s="16" t="s">
+      <c r="O10" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="P10" s="80"/>
-      <c r="Q10" s="80"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="80"/>
-      <c r="T10" s="16"/>
-      <c r="U10" s="16"/>
-      <c r="V10" s="16"/>
-      <c r="W10" s="16"/>
-      <c r="X10" s="80"/>
+      <c r="P10" s="67"/>
+      <c r="Q10" s="67"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="67"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="67"/>
       <c r="AB10" s="1"/>
       <c r="AC10" s="1"/>
-      <c r="AD10" s="13"/>
-      <c r="AE10" s="11"/>
-      <c r="AF10" s="11"/>
-      <c r="AG10" s="11"/>
-      <c r="AH10" s="11"/>
-      <c r="AI10" s="11"/>
+      <c r="AD10" s="4"/>
+      <c r="AE10" s="2"/>
+      <c r="AF10" s="2"/>
+      <c r="AG10" s="2"/>
+      <c r="AH10" s="2"/>
+      <c r="AI10" s="2"/>
       <c r="AJ10" s="1"/>
       <c r="AK10" s="1"/>
       <c r="AL10" s="1"/>
       <c r="AM10" s="1"/>
     </row>
     <row r="11" spans="1:39" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="80"/>
-      <c r="B11" s="80"/>
-      <c r="C11" s="80"/>
-      <c r="D11" s="80"/>
-      <c r="E11" s="80"/>
-      <c r="F11" s="80"/>
-      <c r="G11" s="80"/>
-      <c r="H11" s="80"/>
-      <c r="I11" s="80"/>
-      <c r="J11" s="80"/>
-      <c r="K11" s="80"/>
-      <c r="L11" s="80"/>
-      <c r="M11" s="80"/>
-      <c r="N11" s="80"/>
-      <c r="O11" s="80"/>
-      <c r="P11" s="80"/>
-      <c r="Q11" s="80"/>
-      <c r="R11" s="80"/>
-      <c r="S11" s="80"/>
-      <c r="T11" s="80"/>
-      <c r="U11" s="80"/>
-      <c r="V11" s="80"/>
-      <c r="W11" s="80"/>
-      <c r="X11" s="80"/>
+      <c r="A11" s="67"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="67"/>
+      <c r="L11" s="67"/>
+      <c r="M11" s="67"/>
+      <c r="N11" s="67"/>
+      <c r="O11" s="67"/>
+      <c r="P11" s="67"/>
+      <c r="Q11" s="67"/>
+      <c r="R11" s="67"/>
+      <c r="S11" s="67"/>
+      <c r="T11" s="67"/>
+      <c r="U11" s="67"/>
+      <c r="V11" s="67"/>
+      <c r="W11" s="67"/>
+      <c r="X11" s="67"/>
       <c r="AB11" s="1"/>
       <c r="AC11" s="1"/>
       <c r="AJ11" s="1"/>
@@ -1680,398 +1762,424 @@
       <c r="AM11" s="1"/>
     </row>
     <row r="12" spans="1:39" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="80"/>
-      <c r="B12" s="14">
+      <c r="A12" s="67"/>
+      <c r="B12" s="5">
         <v>8</v>
       </c>
-      <c r="C12" s="80"/>
-      <c r="D12" s="16" t="s">
+      <c r="C12" s="67"/>
+      <c r="D12" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="16">
+      <c r="G12" s="7">
         <v>4</v>
       </c>
-      <c r="H12" s="80"/>
-      <c r="I12" s="80"/>
-      <c r="J12" s="14">
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="5">
         <v>8</v>
       </c>
-      <c r="K12" s="80"/>
-      <c r="L12" s="17" t="s">
+      <c r="K12" s="67"/>
+      <c r="L12" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="M12" s="18">
+      <c r="M12" s="9">
         <v>16</v>
       </c>
-      <c r="N12" s="16">
+      <c r="N12" s="7">
         <v>5</v>
       </c>
-      <c r="O12" s="16">
+      <c r="O12" s="7">
         <v>0</v>
       </c>
-      <c r="P12" s="80"/>
-      <c r="Q12" s="80"/>
-      <c r="R12" s="14"/>
-      <c r="S12" s="80"/>
-      <c r="T12" s="16"/>
-      <c r="U12" s="16"/>
-      <c r="V12" s="16"/>
-      <c r="W12" s="16"/>
-      <c r="X12" s="80"/>
+      <c r="P12" s="67"/>
+      <c r="Q12" s="67"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="67"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="67"/>
     </row>
     <row r="13" spans="1:39" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="80"/>
-      <c r="B13" s="14">
+      <c r="A13" s="67"/>
+      <c r="B13" s="5">
         <v>9</v>
       </c>
-      <c r="C13" s="80"/>
-      <c r="D13" s="16" t="s">
+      <c r="C13" s="67"/>
+      <c r="D13" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="16">
+      <c r="F13" s="7">
         <v>5</v>
       </c>
-      <c r="G13" s="16" t="s">
+      <c r="G13" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="80"/>
-      <c r="I13" s="80"/>
-      <c r="J13" s="14">
+      <c r="H13" s="67"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="5">
         <v>9</v>
       </c>
-      <c r="K13" s="80"/>
-      <c r="L13" s="16" t="s">
+      <c r="K13" s="67"/>
+      <c r="L13" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="M13" s="16">
+      <c r="M13" s="7">
         <v>3</v>
       </c>
-      <c r="N13" s="16" t="s">
+      <c r="N13" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="O13" s="16" t="s">
+      <c r="O13" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="P13" s="80"/>
-      <c r="Q13" s="80"/>
-      <c r="R13" s="14"/>
-      <c r="S13" s="80"/>
-      <c r="T13" s="16"/>
-      <c r="U13" s="16"/>
-      <c r="V13" s="16"/>
-      <c r="W13" s="16"/>
-      <c r="X13" s="80"/>
+      <c r="P13" s="67"/>
+      <c r="Q13" s="67"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="67"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="67"/>
     </row>
     <row r="14" spans="1:39" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="80"/>
-      <c r="B14" s="14">
+      <c r="A14" s="67"/>
+      <c r="B14" s="5">
         <v>10</v>
       </c>
-      <c r="C14" s="80"/>
-      <c r="D14" s="17" t="s">
+      <c r="C14" s="67"/>
+      <c r="D14" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="16" t="s">
+      <c r="F14" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="16" t="s">
+      <c r="G14" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H14" s="80"/>
-      <c r="I14" s="80"/>
-      <c r="J14" s="14">
+      <c r="H14" s="67"/>
+      <c r="I14" s="67"/>
+      <c r="J14" s="5">
         <v>10</v>
       </c>
-      <c r="K14" s="80"/>
-      <c r="L14" s="16">
+      <c r="K14" s="67"/>
+      <c r="L14" s="7">
         <v>4</v>
       </c>
-      <c r="M14" s="16" t="s">
+      <c r="M14" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="N14" s="16" t="s">
+      <c r="N14" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="O14" s="16">
+      <c r="O14" s="7">
         <v>0</v>
       </c>
-      <c r="P14" s="80"/>
-      <c r="Q14" s="80"/>
-      <c r="R14" s="14"/>
-      <c r="S14" s="80"/>
-      <c r="T14" s="17"/>
-      <c r="U14" s="18"/>
-      <c r="V14" s="16"/>
-      <c r="W14" s="16"/>
-      <c r="X14" s="80"/>
+      <c r="P14" s="67"/>
+      <c r="Q14" s="67"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="67"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="67"/>
     </row>
     <row r="15" spans="1:39" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="80"/>
-      <c r="B15" s="14">
+      <c r="A15" s="67"/>
+      <c r="B15" s="5">
         <v>11</v>
       </c>
-      <c r="C15" s="80"/>
-      <c r="D15" s="16" t="s">
+      <c r="C15" s="67"/>
+      <c r="D15" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="F15" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G15" s="16" t="s">
+      <c r="G15" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H15" s="80"/>
-      <c r="I15" s="80"/>
-      <c r="J15" s="14">
+      <c r="H15" s="67"/>
+      <c r="I15" s="67"/>
+      <c r="J15" s="5">
         <v>11</v>
       </c>
-      <c r="K15" s="80"/>
-      <c r="L15" s="16" t="s">
+      <c r="K15" s="67"/>
+      <c r="L15" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="M15" s="16" t="s">
+      <c r="M15" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="N15" s="16">
+      <c r="N15" s="7">
         <v>3</v>
       </c>
-      <c r="O15" s="16" t="s">
+      <c r="O15" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="P15" s="80"/>
-      <c r="Q15" s="80"/>
-      <c r="R15" s="14"/>
-      <c r="S15" s="80"/>
-      <c r="T15" s="16"/>
-      <c r="U15" s="16"/>
-      <c r="V15" s="16"/>
-      <c r="W15" s="16"/>
-      <c r="X15" s="80"/>
+      <c r="P15" s="67"/>
+      <c r="Q15" s="67"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="67"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="67"/>
     </row>
     <row r="16" spans="1:39" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="80"/>
-      <c r="B16" s="80"/>
-      <c r="C16" s="80"/>
-      <c r="D16" s="80"/>
-      <c r="E16" s="80"/>
-      <c r="F16" s="80"/>
-      <c r="G16" s="80"/>
-      <c r="H16" s="80"/>
-      <c r="I16" s="80"/>
-      <c r="J16" s="80"/>
-      <c r="K16" s="80"/>
-      <c r="L16" s="80"/>
-      <c r="M16" s="80"/>
-      <c r="N16" s="80"/>
-      <c r="O16" s="80"/>
-      <c r="P16" s="80"/>
-      <c r="Q16" s="80"/>
-      <c r="R16" s="80"/>
-      <c r="S16" s="80"/>
-      <c r="T16" s="80"/>
-      <c r="U16" s="80"/>
-      <c r="V16" s="80"/>
-      <c r="W16" s="80"/>
-      <c r="X16" s="80"/>
+      <c r="A16" s="67"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="67"/>
+      <c r="K16" s="67"/>
+      <c r="L16" s="67"/>
+      <c r="M16" s="67"/>
+      <c r="N16" s="67"/>
+      <c r="O16" s="67"/>
+      <c r="P16" s="67"/>
+      <c r="Q16" s="67"/>
+      <c r="R16" s="67"/>
+      <c r="S16" s="67"/>
+      <c r="T16" s="67"/>
+      <c r="U16" s="67"/>
+      <c r="V16" s="67"/>
+      <c r="W16" s="67"/>
+      <c r="X16" s="67"/>
     </row>
     <row r="17" spans="1:40" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="80"/>
-      <c r="B17" s="14">
+      <c r="A17" s="67"/>
+      <c r="B17" s="5">
         <v>12</v>
       </c>
-      <c r="C17" s="80"/>
-      <c r="D17" s="16" t="s">
+      <c r="C17" s="67"/>
+      <c r="D17" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="F17" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G17" s="16" t="s">
+      <c r="G17" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H17" s="80"/>
-      <c r="I17" s="80"/>
-      <c r="J17" s="14">
+      <c r="H17" s="67"/>
+      <c r="I17" s="67"/>
+      <c r="J17" s="5">
         <v>12</v>
       </c>
-      <c r="K17" s="80"/>
-      <c r="L17" s="16" t="s">
+      <c r="K17" s="67"/>
+      <c r="L17" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="M17" s="16">
+      <c r="M17" s="7">
         <v>4</v>
       </c>
-      <c r="N17" s="16">
+      <c r="N17" s="7">
         <v>5</v>
       </c>
-      <c r="O17" s="16">
+      <c r="O17" s="7">
         <v>5</v>
       </c>
-      <c r="P17" s="80"/>
-      <c r="Q17" s="80"/>
-      <c r="R17" s="14"/>
-      <c r="S17" s="80"/>
-      <c r="T17" s="16"/>
-      <c r="U17" s="16"/>
-      <c r="V17" s="16"/>
-      <c r="W17" s="16"/>
-      <c r="X17" s="80"/>
+      <c r="P17" s="67"/>
+      <c r="Q17" s="67"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="67"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="67"/>
     </row>
     <row r="18" spans="1:40" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="80"/>
-      <c r="B18" s="14">
+      <c r="A18" s="67"/>
+      <c r="B18" s="5">
         <v>13</v>
       </c>
-      <c r="C18" s="80"/>
-      <c r="D18" s="16" t="s">
+      <c r="C18" s="67"/>
+      <c r="D18" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F18" s="16" t="s">
+      <c r="F18" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G18" s="17" t="s">
+      <c r="G18" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="H18" s="80"/>
-      <c r="I18" s="80"/>
-      <c r="J18" s="14">
+      <c r="H18" s="67"/>
+      <c r="I18" s="67"/>
+      <c r="J18" s="5">
         <v>13</v>
       </c>
-      <c r="K18" s="80"/>
-      <c r="L18" s="16" t="s">
+      <c r="K18" s="67"/>
+      <c r="L18" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="M18" s="16">
+      <c r="M18" s="7">
         <v>0</v>
       </c>
-      <c r="N18" s="16" t="s">
+      <c r="N18" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="O18" s="16" t="s">
+      <c r="O18" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="P18" s="80"/>
-      <c r="Q18" s="80"/>
-      <c r="R18" s="14"/>
-      <c r="S18" s="80"/>
-      <c r="T18" s="16"/>
-      <c r="U18" s="16"/>
-      <c r="V18" s="16"/>
-      <c r="W18" s="17"/>
-      <c r="X18" s="80"/>
+      <c r="P18" s="67"/>
+      <c r="Q18" s="67"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="67"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="7"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="8"/>
+      <c r="X18" s="67"/>
     </row>
     <row r="19" spans="1:40" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="80"/>
-      <c r="B19" s="14">
+      <c r="A19" s="67"/>
+      <c r="B19" s="5">
         <v>14</v>
       </c>
-      <c r="C19" s="80"/>
-      <c r="D19" s="18" t="s">
+      <c r="C19" s="67"/>
+      <c r="D19" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="80"/>
-      <c r="I19" s="80"/>
-      <c r="J19" s="14">
+      <c r="E19" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G19" s="90" t="s">
+        <v>69</v>
+      </c>
+      <c r="H19" s="67"/>
+      <c r="I19" s="67"/>
+      <c r="J19" s="5">
         <v>14</v>
       </c>
-      <c r="K19" s="80"/>
-      <c r="L19" s="17" t="s">
+      <c r="K19" s="67"/>
+      <c r="L19" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="M19" s="18" t="s">
+      <c r="M19" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="N19" s="16"/>
-      <c r="O19" s="16"/>
-      <c r="P19" s="80"/>
-      <c r="Q19" s="80"/>
-      <c r="R19" s="14"/>
-      <c r="S19" s="80"/>
-      <c r="T19" s="18"/>
-      <c r="U19" s="16"/>
-      <c r="V19" s="16"/>
-      <c r="W19" s="16"/>
-      <c r="X19" s="80"/>
+      <c r="N19" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P19" s="67"/>
+      <c r="Q19" s="67"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="67"/>
+      <c r="T19" s="9"/>
+      <c r="U19" s="7"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="7"/>
+      <c r="X19" s="67"/>
     </row>
     <row r="20" spans="1:40" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="80"/>
-      <c r="B20" s="14">
+      <c r="A20" s="67"/>
+      <c r="B20" s="5">
         <v>15</v>
       </c>
-      <c r="C20" s="80"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="80"/>
-      <c r="I20" s="80"/>
-      <c r="J20" s="14">
+      <c r="C20" s="67"/>
+      <c r="D20" s="7">
+        <v>55</v>
+      </c>
+      <c r="E20" s="90" t="s">
+        <v>70</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="H20" s="67"/>
+      <c r="I20" s="67"/>
+      <c r="J20" s="5">
         <v>15</v>
       </c>
-      <c r="K20" s="80"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="16"/>
-      <c r="P20" s="80"/>
-      <c r="Q20" s="80"/>
-      <c r="R20" s="14"/>
-      <c r="S20" s="80"/>
-      <c r="T20" s="16"/>
-      <c r="U20" s="16"/>
-      <c r="V20" s="16"/>
-      <c r="W20" s="16"/>
-      <c r="X20" s="80"/>
+      <c r="K20" s="67"/>
+      <c r="L20" s="90" t="s">
+        <v>69</v>
+      </c>
+      <c r="M20" s="7">
+        <v>55</v>
+      </c>
+      <c r="N20" s="90" t="s">
+        <v>70</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="P20" s="67"/>
+      <c r="Q20" s="67"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="67"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7"/>
+      <c r="V20" s="7"/>
+      <c r="W20" s="7"/>
+      <c r="X20" s="67"/>
     </row>
     <row r="21" spans="1:40" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="80"/>
-      <c r="B21" s="80"/>
-      <c r="C21" s="80"/>
-      <c r="D21" s="80"/>
-      <c r="E21" s="80"/>
-      <c r="F21" s="80"/>
-      <c r="G21" s="80"/>
-      <c r="H21" s="80"/>
-      <c r="I21" s="80"/>
-      <c r="J21" s="80"/>
-      <c r="K21" s="80"/>
-      <c r="L21" s="80"/>
-      <c r="M21" s="80"/>
-      <c r="N21" s="80"/>
-      <c r="O21" s="80"/>
-      <c r="P21" s="80"/>
-      <c r="Q21" s="80"/>
-      <c r="R21" s="80"/>
-      <c r="S21" s="80"/>
-      <c r="T21" s="80"/>
-      <c r="U21" s="80"/>
-      <c r="V21" s="80"/>
-      <c r="W21" s="80"/>
-      <c r="X21" s="80"/>
+      <c r="A21" s="67"/>
+      <c r="B21" s="67"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="67"/>
+      <c r="H21" s="67"/>
+      <c r="I21" s="67"/>
+      <c r="J21" s="67"/>
+      <c r="K21" s="67"/>
+      <c r="L21" s="67"/>
+      <c r="M21" s="67"/>
+      <c r="N21" s="67"/>
+      <c r="O21" s="67"/>
+      <c r="P21" s="67"/>
+      <c r="Q21" s="67"/>
+      <c r="R21" s="67"/>
+      <c r="S21" s="67"/>
+      <c r="T21" s="67"/>
+      <c r="U21" s="67"/>
+      <c r="V21" s="67"/>
+      <c r="W21" s="67"/>
+      <c r="X21" s="67"/>
       <c r="AB21" s="1"/>
       <c r="AC21" s="1"/>
       <c r="AJ21" s="1"/>
@@ -2088,470 +2196,1036 @@
       <c r="AM22" s="1"/>
     </row>
     <row r="23" spans="1:40" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="80"/>
-      <c r="B23" s="80"/>
-      <c r="C23" s="80"/>
-      <c r="D23" s="80"/>
-      <c r="E23" s="80"/>
-      <c r="F23" s="80"/>
-      <c r="G23" s="80"/>
-      <c r="H23" s="80"/>
-      <c r="I23" s="80"/>
-      <c r="J23" s="80"/>
-      <c r="K23" s="80"/>
-      <c r="L23" s="80"/>
-      <c r="M23" s="80"/>
-      <c r="N23" s="80"/>
-      <c r="O23" s="80"/>
-      <c r="P23" s="80"/>
-      <c r="Q23" s="80"/>
-      <c r="R23" s="80"/>
-      <c r="S23" s="80"/>
-      <c r="T23" s="80"/>
-      <c r="U23" s="80"/>
-      <c r="V23" s="80"/>
-      <c r="W23" s="80"/>
-      <c r="X23" s="80"/>
-      <c r="Y23" s="80"/>
-      <c r="Z23" s="80"/>
-      <c r="AA23" s="80"/>
-      <c r="AB23" s="81"/>
-      <c r="AC23" s="81"/>
-      <c r="AD23" s="82"/>
-      <c r="AE23" s="83"/>
-      <c r="AF23" s="83"/>
-      <c r="AG23" s="83"/>
+      <c r="A23" s="67"/>
+      <c r="B23" s="67"/>
+      <c r="C23" s="67"/>
+      <c r="D23" s="67"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="67"/>
+      <c r="J23" s="67"/>
+      <c r="K23" s="67"/>
+      <c r="L23" s="67"/>
+      <c r="M23" s="67"/>
+      <c r="N23" s="67"/>
+      <c r="O23" s="67"/>
+      <c r="P23" s="67"/>
+      <c r="Q23" s="67"/>
+      <c r="R23" s="67"/>
+      <c r="S23" s="67"/>
+      <c r="T23" s="67"/>
+      <c r="U23" s="67"/>
+      <c r="V23" s="67"/>
+      <c r="W23" s="67"/>
+      <c r="X23" s="67"/>
+      <c r="Y23" s="67"/>
+      <c r="Z23" s="67"/>
+      <c r="AA23" s="67"/>
+      <c r="AB23" s="68"/>
+      <c r="AC23" s="68"/>
+      <c r="AD23" s="69"/>
+      <c r="AE23" s="70"/>
+      <c r="AF23" s="70"/>
+      <c r="AG23" s="70"/>
       <c r="AJ23" s="1"/>
       <c r="AK23" s="1"/>
       <c r="AL23" s="1"/>
       <c r="AM23" s="1"/>
     </row>
     <row r="24" spans="1:40" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="80"/>
-      <c r="B24" s="31" t="s">
+      <c r="A24" s="67"/>
+      <c r="B24" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="32"/>
-      <c r="L24" s="32"/>
-      <c r="M24" s="32"/>
-      <c r="N24" s="32"/>
-      <c r="O24" s="32"/>
-      <c r="P24" s="32"/>
-      <c r="Q24" s="32"/>
-      <c r="R24" s="32"/>
-      <c r="S24" s="32"/>
-      <c r="T24" s="33"/>
-      <c r="U24" s="47"/>
-      <c r="V24" s="48"/>
-      <c r="W24" s="48"/>
-      <c r="X24" s="48"/>
-      <c r="Y24" s="48"/>
-      <c r="Z24" s="48"/>
-      <c r="AA24" s="48"/>
-      <c r="AB24" s="49"/>
-      <c r="AC24" s="49"/>
-      <c r="AD24" s="50"/>
-      <c r="AE24" s="51"/>
-      <c r="AF24" s="52"/>
-      <c r="AG24" s="83"/>
+      <c r="C24" s="81"/>
+      <c r="D24" s="81"/>
+      <c r="E24" s="81"/>
+      <c r="F24" s="81"/>
+      <c r="G24" s="81"/>
+      <c r="H24" s="81"/>
+      <c r="I24" s="81"/>
+      <c r="J24" s="81"/>
+      <c r="K24" s="81"/>
+      <c r="L24" s="81"/>
+      <c r="M24" s="81"/>
+      <c r="N24" s="81"/>
+      <c r="O24" s="81"/>
+      <c r="P24" s="81"/>
+      <c r="Q24" s="81"/>
+      <c r="R24" s="81"/>
+      <c r="S24" s="81"/>
+      <c r="T24" s="82"/>
+      <c r="U24" s="34"/>
+      <c r="V24" s="35"/>
+      <c r="W24" s="35"/>
+      <c r="X24" s="35"/>
+      <c r="Y24" s="35"/>
+      <c r="Z24" s="35"/>
+      <c r="AA24" s="35"/>
+      <c r="AB24" s="36"/>
+      <c r="AC24" s="36"/>
+      <c r="AD24" s="37"/>
+      <c r="AE24" s="38"/>
+      <c r="AF24" s="39"/>
+      <c r="AG24" s="70"/>
       <c r="AJ24" s="1"/>
       <c r="AK24" s="1"/>
       <c r="AL24" s="1"/>
       <c r="AM24" s="1"/>
     </row>
-    <row r="25" spans="1:40" s="20" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="54"/>
-      <c r="B25" s="72"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="78"/>
-      <c r="G25" s="73"/>
-      <c r="H25" s="73"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="73"/>
-      <c r="K25" s="78"/>
-      <c r="L25" s="73"/>
-      <c r="M25" s="73"/>
-      <c r="N25" s="73"/>
-      <c r="O25" s="73"/>
-      <c r="P25" s="78"/>
-      <c r="Q25" s="73"/>
-      <c r="R25" s="73"/>
-      <c r="S25" s="73"/>
-      <c r="T25" s="78"/>
-      <c r="U25" s="53"/>
-      <c r="V25" s="54"/>
-      <c r="W25" s="54"/>
-      <c r="X25" s="54"/>
-      <c r="Y25" s="54"/>
-      <c r="Z25" s="54"/>
-      <c r="AA25" s="54"/>
-      <c r="AB25" s="54"/>
-      <c r="AC25" s="54"/>
-      <c r="AD25" s="54"/>
-      <c r="AE25" s="54"/>
-      <c r="AF25" s="55"/>
-      <c r="AG25" s="54"/>
-    </row>
-    <row r="26" spans="1:40" s="23" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="60"/>
-      <c r="B26" s="30">
+    <row r="25" spans="1:40" s="11" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="41"/>
+      <c r="B25" s="59"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="60"/>
+      <c r="H25" s="60"/>
+      <c r="I25" s="60"/>
+      <c r="J25" s="60"/>
+      <c r="K25" s="65"/>
+      <c r="L25" s="60"/>
+      <c r="M25" s="60"/>
+      <c r="N25" s="60"/>
+      <c r="O25" s="60"/>
+      <c r="P25" s="65"/>
+      <c r="Q25" s="60"/>
+      <c r="R25" s="60"/>
+      <c r="S25" s="60"/>
+      <c r="T25" s="65"/>
+      <c r="U25" s="40"/>
+      <c r="V25" s="41"/>
+      <c r="W25" s="41"/>
+      <c r="X25" s="41"/>
+      <c r="Y25" s="41"/>
+      <c r="Z25" s="41"/>
+      <c r="AA25" s="41"/>
+      <c r="AB25" s="41"/>
+      <c r="AC25" s="41"/>
+      <c r="AD25" s="41"/>
+      <c r="AE25" s="41"/>
+      <c r="AF25" s="42"/>
+      <c r="AG25" s="41"/>
+    </row>
+    <row r="26" spans="1:40" s="13" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="47"/>
+      <c r="B26" s="20">
         <v>0</v>
       </c>
-      <c r="C26" s="39"/>
-      <c r="D26" s="79"/>
-      <c r="E26" s="79"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="30">
+      <c r="C26" s="26"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="66"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="20">
         <v>1</v>
       </c>
-      <c r="H26" s="39"/>
-      <c r="I26" s="79"/>
-      <c r="J26" s="79"/>
-      <c r="K26" s="46"/>
-      <c r="L26" s="30">
+      <c r="H26" s="26"/>
+      <c r="I26" s="66"/>
+      <c r="J26" s="66"/>
+      <c r="K26" s="33"/>
+      <c r="L26" s="20">
         <v>2</v>
       </c>
-      <c r="M26" s="39"/>
-      <c r="N26" s="79"/>
-      <c r="O26" s="79"/>
-      <c r="P26" s="46"/>
-      <c r="Q26" s="30">
+      <c r="M26" s="26"/>
+      <c r="N26" s="66"/>
+      <c r="O26" s="66"/>
+      <c r="P26" s="33"/>
+      <c r="Q26" s="20">
         <v>3</v>
       </c>
-      <c r="R26" s="39"/>
-      <c r="S26" s="79"/>
-      <c r="T26" s="79"/>
-      <c r="U26" s="53"/>
-      <c r="V26" s="56" t="s">
+      <c r="R26" s="26"/>
+      <c r="S26" s="66"/>
+      <c r="T26" s="66"/>
+      <c r="U26" s="40"/>
+      <c r="V26" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="W26" s="56"/>
-      <c r="X26" s="56"/>
-      <c r="Y26" s="56"/>
-      <c r="Z26" s="56"/>
-      <c r="AA26" s="56"/>
-      <c r="AB26" s="56"/>
-      <c r="AC26" s="56"/>
-      <c r="AD26" s="56"/>
-      <c r="AE26" s="56"/>
-      <c r="AF26" s="57"/>
-      <c r="AG26" s="56"/>
-      <c r="AH26" s="45"/>
-      <c r="AI26" s="45"/>
-      <c r="AJ26" s="45"/>
-      <c r="AK26" s="45"/>
-      <c r="AL26" s="45"/>
-      <c r="AM26" s="45"/>
-      <c r="AN26" s="45"/>
-    </row>
-    <row r="27" spans="1:40" s="19" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="59"/>
-      <c r="B27" s="24" t="s">
+      <c r="W26" s="43"/>
+      <c r="X26" s="43"/>
+      <c r="Y26" s="43"/>
+      <c r="Z26" s="43"/>
+      <c r="AA26" s="43"/>
+      <c r="AB26" s="43"/>
+      <c r="AC26" s="43"/>
+      <c r="AD26" s="43"/>
+      <c r="AE26" s="43"/>
+      <c r="AF26" s="44"/>
+      <c r="AG26" s="43"/>
+      <c r="AH26" s="32"/>
+      <c r="AI26" s="32"/>
+      <c r="AJ26" s="32"/>
+      <c r="AK26" s="32"/>
+      <c r="AL26" s="32"/>
+      <c r="AM26" s="32"/>
+      <c r="AN26" s="32"/>
+    </row>
+    <row r="27" spans="1:40" s="10" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="46"/>
+      <c r="B27" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="25"/>
-      <c r="D27" s="24" t="s">
+      <c r="C27" s="15"/>
+      <c r="D27" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E27" s="26"/>
-      <c r="F27" s="74"/>
-      <c r="G27" s="24" t="s">
+      <c r="E27" s="16"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="H27" s="25"/>
-      <c r="I27" s="24" t="s">
+      <c r="H27" s="15"/>
+      <c r="I27" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="J27" s="26"/>
-      <c r="K27" s="74"/>
-      <c r="L27" s="27" t="s">
+      <c r="J27" s="16"/>
+      <c r="K27" s="61"/>
+      <c r="L27" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="M27" s="28"/>
-      <c r="N27" s="27" t="s">
+      <c r="M27" s="18"/>
+      <c r="N27" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="O27" s="28"/>
-      <c r="P27" s="74"/>
-      <c r="Q27" s="27" t="s">
+      <c r="O27" s="18"/>
+      <c r="P27" s="61"/>
+      <c r="Q27" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="R27" s="29"/>
-      <c r="S27" s="27" t="s">
+      <c r="R27" s="19"/>
+      <c r="S27" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="T27" s="28"/>
-      <c r="U27" s="58"/>
-      <c r="V27" s="59"/>
-      <c r="W27" s="60"/>
-      <c r="X27" s="60"/>
-      <c r="Y27" s="60"/>
-      <c r="Z27" s="60"/>
-      <c r="AA27" s="60"/>
-      <c r="AB27" s="60"/>
-      <c r="AC27" s="60"/>
-      <c r="AD27" s="60"/>
-      <c r="AE27" s="60"/>
-      <c r="AF27" s="61"/>
-      <c r="AG27" s="60"/>
-      <c r="AH27" s="22"/>
-      <c r="AI27" s="20"/>
-      <c r="AJ27" s="21"/>
-      <c r="AK27" s="21"/>
-    </row>
-    <row r="28" spans="1:40" s="19" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="59"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="75"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="36"/>
-      <c r="K28" s="75"/>
-      <c r="L28" s="41" t="s">
+      <c r="T27" s="18"/>
+      <c r="U27" s="45"/>
+      <c r="V27" s="46"/>
+      <c r="W27" s="47"/>
+      <c r="X27" s="47"/>
+      <c r="Y27" s="47"/>
+      <c r="Z27" s="47"/>
+      <c r="AA27" s="47"/>
+      <c r="AB27" s="47"/>
+      <c r="AC27" s="47"/>
+      <c r="AD27" s="47"/>
+      <c r="AE27" s="47"/>
+      <c r="AF27" s="48"/>
+      <c r="AG27" s="47"/>
+      <c r="AH27" s="12"/>
+      <c r="AI27" s="11"/>
+    </row>
+    <row r="28" spans="1:40" s="10" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="46"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="62"/>
+      <c r="L28" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="M28" s="36"/>
-      <c r="N28" s="41" t="s">
+      <c r="M28" s="23"/>
+      <c r="N28" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="O28" s="36"/>
-      <c r="P28" s="75"/>
-      <c r="Q28" s="41" t="s">
+      <c r="O28" s="23"/>
+      <c r="P28" s="62"/>
+      <c r="Q28" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="R28" s="36"/>
-      <c r="S28" s="41" t="s">
+      <c r="R28" s="23"/>
+      <c r="S28" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="T28" s="36"/>
-      <c r="U28" s="62"/>
-      <c r="V28" s="63" t="s">
+      <c r="T28" s="23"/>
+      <c r="U28" s="49"/>
+      <c r="V28" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="W28" s="59"/>
-      <c r="X28" s="59"/>
-      <c r="Y28" s="59"/>
-      <c r="Z28" s="59"/>
-      <c r="AA28" s="59"/>
-      <c r="AB28" s="59"/>
-      <c r="AC28" s="59"/>
-      <c r="AD28" s="64"/>
-      <c r="AE28" s="54"/>
-      <c r="AF28" s="55"/>
-      <c r="AG28" s="54"/>
-      <c r="AH28" s="20"/>
-      <c r="AI28" s="20"/>
-    </row>
-    <row r="29" spans="1:40" s="19" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="59"/>
-      <c r="B29" s="37"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="76"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="38"/>
-      <c r="K29" s="76"/>
-      <c r="L29" s="37"/>
-      <c r="M29" s="38"/>
-      <c r="N29" s="42"/>
-      <c r="O29" s="38"/>
-      <c r="P29" s="76"/>
-      <c r="Q29" s="37"/>
-      <c r="R29" s="38"/>
-      <c r="S29" s="37"/>
-      <c r="T29" s="38"/>
-      <c r="U29" s="62"/>
-      <c r="V29" s="63" t="s">
+      <c r="W28" s="46"/>
+      <c r="X28" s="46"/>
+      <c r="Y28" s="46"/>
+      <c r="Z28" s="46"/>
+      <c r="AA28" s="46"/>
+      <c r="AB28" s="46"/>
+      <c r="AC28" s="46"/>
+      <c r="AD28" s="51"/>
+      <c r="AE28" s="41"/>
+      <c r="AF28" s="42"/>
+      <c r="AG28" s="41"/>
+      <c r="AH28" s="11"/>
+      <c r="AI28" s="11"/>
+    </row>
+    <row r="29" spans="1:40" s="10" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="46"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="63"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="25"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="25"/>
+      <c r="P29" s="63"/>
+      <c r="Q29" s="24"/>
+      <c r="R29" s="25"/>
+      <c r="S29" s="24"/>
+      <c r="T29" s="25"/>
+      <c r="U29" s="49"/>
+      <c r="V29" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="W29" s="59"/>
-      <c r="X29" s="59"/>
-      <c r="Y29" s="59"/>
-      <c r="Z29" s="59"/>
-      <c r="AA29" s="59"/>
-      <c r="AB29" s="59"/>
-      <c r="AC29" s="59"/>
-      <c r="AD29" s="64"/>
-      <c r="AE29" s="54"/>
-      <c r="AF29" s="55"/>
-      <c r="AG29" s="54"/>
-      <c r="AH29" s="20"/>
-      <c r="AI29" s="20"/>
-    </row>
-    <row r="30" spans="1:40" s="19" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="59"/>
-      <c r="B30" s="37"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="76"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="37"/>
-      <c r="J30" s="38"/>
-      <c r="K30" s="76"/>
-      <c r="L30" s="37"/>
-      <c r="M30" s="38"/>
-      <c r="N30" s="43" t="s">
+      <c r="W29" s="46"/>
+      <c r="X29" s="46"/>
+      <c r="Y29" s="46"/>
+      <c r="Z29" s="46"/>
+      <c r="AA29" s="46"/>
+      <c r="AB29" s="46"/>
+      <c r="AC29" s="46"/>
+      <c r="AD29" s="51"/>
+      <c r="AE29" s="41"/>
+      <c r="AF29" s="42"/>
+      <c r="AG29" s="41"/>
+      <c r="AH29" s="11"/>
+      <c r="AI29" s="11"/>
+    </row>
+    <row r="30" spans="1:40" s="10" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="46"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="63"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="63"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="O30" s="38"/>
-      <c r="P30" s="76"/>
-      <c r="Q30" s="37"/>
-      <c r="R30" s="38"/>
-      <c r="S30" s="37"/>
-      <c r="T30" s="38"/>
-      <c r="U30" s="62"/>
-      <c r="V30" s="65" t="s">
+      <c r="O30" s="25"/>
+      <c r="P30" s="63"/>
+      <c r="Q30" s="24"/>
+      <c r="R30" s="25"/>
+      <c r="S30" s="24"/>
+      <c r="T30" s="25"/>
+      <c r="U30" s="49"/>
+      <c r="V30" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="W30" s="59"/>
-      <c r="X30" s="59"/>
-      <c r="Y30" s="59"/>
-      <c r="Z30" s="59"/>
-      <c r="AA30" s="59"/>
-      <c r="AB30" s="59"/>
-      <c r="AC30" s="59"/>
-      <c r="AD30" s="64"/>
-      <c r="AE30" s="54"/>
-      <c r="AF30" s="55"/>
-      <c r="AG30" s="54"/>
-      <c r="AH30" s="20"/>
-      <c r="AI30" s="20"/>
-    </row>
-    <row r="31" spans="1:40" s="19" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="59"/>
-      <c r="B31" s="37"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="37"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="76"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="37"/>
-      <c r="J31" s="38"/>
-      <c r="K31" s="76"/>
-      <c r="L31" s="37"/>
-      <c r="M31" s="38"/>
-      <c r="N31" s="43" t="s">
+      <c r="W30" s="46"/>
+      <c r="X30" s="46"/>
+      <c r="Y30" s="46"/>
+      <c r="Z30" s="46"/>
+      <c r="AA30" s="46"/>
+      <c r="AB30" s="46"/>
+      <c r="AC30" s="46"/>
+      <c r="AD30" s="51"/>
+      <c r="AE30" s="41"/>
+      <c r="AF30" s="42"/>
+      <c r="AG30" s="41"/>
+      <c r="AH30" s="11"/>
+      <c r="AI30" s="11"/>
+    </row>
+    <row r="31" spans="1:40" s="10" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="46"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="63"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="25"/>
+      <c r="K31" s="63"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="25"/>
+      <c r="N31" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="O31" s="38"/>
-      <c r="P31" s="76"/>
-      <c r="Q31" s="37"/>
-      <c r="R31" s="38"/>
-      <c r="S31" s="37"/>
-      <c r="T31" s="38"/>
-      <c r="U31" s="62"/>
-      <c r="V31" s="65" t="s">
+      <c r="O31" s="25"/>
+      <c r="P31" s="63"/>
+      <c r="Q31" s="24"/>
+      <c r="R31" s="25"/>
+      <c r="S31" s="24"/>
+      <c r="T31" s="25"/>
+      <c r="U31" s="49"/>
+      <c r="V31" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="W31" s="59"/>
-      <c r="X31" s="59"/>
-      <c r="Y31" s="59"/>
-      <c r="Z31" s="59"/>
-      <c r="AA31" s="59"/>
-      <c r="AB31" s="59"/>
-      <c r="AC31" s="59"/>
-      <c r="AD31" s="64"/>
-      <c r="AE31" s="54"/>
-      <c r="AF31" s="55"/>
-      <c r="AG31" s="54"/>
-      <c r="AH31" s="20"/>
-      <c r="AI31" s="20"/>
-    </row>
-    <row r="32" spans="1:40" s="19" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="59"/>
-      <c r="B32" s="39"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="77"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="40"/>
-      <c r="I32" s="39"/>
-      <c r="J32" s="40"/>
-      <c r="K32" s="77"/>
-      <c r="L32" s="39"/>
-      <c r="M32" s="40"/>
-      <c r="N32" s="44" t="s">
+      <c r="W31" s="46"/>
+      <c r="X31" s="46"/>
+      <c r="Y31" s="46"/>
+      <c r="Z31" s="46"/>
+      <c r="AA31" s="46"/>
+      <c r="AB31" s="46"/>
+      <c r="AC31" s="46"/>
+      <c r="AD31" s="51"/>
+      <c r="AE31" s="41"/>
+      <c r="AF31" s="42"/>
+      <c r="AG31" s="41"/>
+      <c r="AH31" s="11"/>
+      <c r="AI31" s="11"/>
+    </row>
+    <row r="32" spans="1:40" s="10" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="46"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="64"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="64"/>
+      <c r="L32" s="26"/>
+      <c r="M32" s="27"/>
+      <c r="N32" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="O32" s="40"/>
-      <c r="P32" s="77"/>
-      <c r="Q32" s="39"/>
-      <c r="R32" s="40"/>
-      <c r="S32" s="39"/>
-      <c r="T32" s="40"/>
-      <c r="U32" s="66"/>
-      <c r="V32" s="67" t="s">
+      <c r="O32" s="27"/>
+      <c r="P32" s="64"/>
+      <c r="Q32" s="26"/>
+      <c r="R32" s="27"/>
+      <c r="S32" s="26"/>
+      <c r="T32" s="27"/>
+      <c r="U32" s="53"/>
+      <c r="V32" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="W32" s="68"/>
-      <c r="X32" s="68"/>
-      <c r="Y32" s="68"/>
-      <c r="Z32" s="68"/>
-      <c r="AA32" s="68"/>
-      <c r="AB32" s="68"/>
-      <c r="AC32" s="68"/>
-      <c r="AD32" s="69"/>
-      <c r="AE32" s="70"/>
-      <c r="AF32" s="71"/>
-      <c r="AG32" s="54"/>
-      <c r="AH32" s="20"/>
-      <c r="AI32" s="20"/>
+      <c r="W32" s="55"/>
+      <c r="X32" s="55"/>
+      <c r="Y32" s="55"/>
+      <c r="Z32" s="55"/>
+      <c r="AA32" s="55"/>
+      <c r="AB32" s="55"/>
+      <c r="AC32" s="55"/>
+      <c r="AD32" s="56"/>
+      <c r="AE32" s="57"/>
+      <c r="AF32" s="58"/>
+      <c r="AG32" s="41"/>
+      <c r="AH32" s="11"/>
+      <c r="AI32" s="11"/>
     </row>
     <row r="33" spans="1:33" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="80"/>
-      <c r="B33" s="80"/>
-      <c r="C33" s="80"/>
-      <c r="D33" s="80"/>
-      <c r="E33" s="80"/>
-      <c r="F33" s="80"/>
-      <c r="G33" s="80"/>
-      <c r="H33" s="80"/>
-      <c r="I33" s="80"/>
-      <c r="J33" s="80"/>
-      <c r="K33" s="80"/>
-      <c r="L33" s="80"/>
-      <c r="M33" s="80"/>
-      <c r="N33" s="80"/>
-      <c r="O33" s="80"/>
-      <c r="P33" s="80"/>
-      <c r="Q33" s="80"/>
-      <c r="R33" s="80"/>
-      <c r="S33" s="80"/>
-      <c r="T33" s="80"/>
-      <c r="U33" s="80"/>
-      <c r="V33" s="80"/>
-      <c r="W33" s="80"/>
-      <c r="X33" s="80"/>
-      <c r="Y33" s="80"/>
-      <c r="Z33" s="80"/>
-      <c r="AA33" s="80"/>
-      <c r="AB33" s="80"/>
-      <c r="AC33" s="80"/>
-      <c r="AD33" s="82"/>
-      <c r="AE33" s="83"/>
-      <c r="AF33" s="83"/>
-      <c r="AG33" s="83"/>
+      <c r="A33" s="67"/>
+      <c r="B33" s="67"/>
+      <c r="C33" s="67"/>
+      <c r="D33" s="67"/>
+      <c r="E33" s="67"/>
+      <c r="F33" s="67"/>
+      <c r="G33" s="67"/>
+      <c r="H33" s="67"/>
+      <c r="I33" s="67"/>
+      <c r="J33" s="67"/>
+      <c r="K33" s="67"/>
+      <c r="L33" s="67"/>
+      <c r="M33" s="67"/>
+      <c r="N33" s="67"/>
+      <c r="O33" s="67"/>
+      <c r="P33" s="67"/>
+      <c r="Q33" s="67"/>
+      <c r="R33" s="67"/>
+      <c r="S33" s="67"/>
+      <c r="T33" s="67"/>
+      <c r="U33" s="67"/>
+      <c r="V33" s="67"/>
+      <c r="W33" s="67"/>
+      <c r="X33" s="67"/>
+      <c r="Y33" s="67"/>
+      <c r="Z33" s="67"/>
+      <c r="AA33" s="67"/>
+      <c r="AB33" s="67"/>
+      <c r="AC33" s="67"/>
+      <c r="AD33" s="69"/>
+      <c r="AE33" s="70"/>
+      <c r="AF33" s="70"/>
+      <c r="AG33" s="70"/>
+    </row>
+    <row r="35" spans="1:33" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="83" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" s="84"/>
+      <c r="D35" s="84"/>
+      <c r="E35" s="84"/>
+      <c r="F35" s="84"/>
+      <c r="G35" s="84"/>
+      <c r="H35" s="84"/>
+      <c r="I35" s="84"/>
+      <c r="J35" s="84"/>
+      <c r="K35" s="84"/>
+      <c r="L35" s="84"/>
+      <c r="M35" s="84"/>
+      <c r="N35" s="84"/>
+      <c r="O35" s="84"/>
+      <c r="P35" s="84"/>
+      <c r="Q35" s="84"/>
+      <c r="R35" s="84"/>
+      <c r="S35" s="84"/>
+      <c r="T35" s="84"/>
+      <c r="U35" s="84"/>
+      <c r="V35" s="84"/>
+      <c r="W35" s="84"/>
+      <c r="X35" s="35"/>
+      <c r="Y35" s="35"/>
+      <c r="Z35" s="84">
+        <v>4</v>
+      </c>
+      <c r="AA35" s="84" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB35" s="84"/>
+      <c r="AC35" s="84"/>
+      <c r="AD35" s="86"/>
+      <c r="AE35" s="10"/>
+    </row>
+    <row r="36" spans="1:33" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="49"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="46"/>
+      <c r="E36" s="46"/>
+      <c r="F36" s="46"/>
+      <c r="G36" s="46"/>
+      <c r="H36" s="46"/>
+      <c r="I36" s="46"/>
+      <c r="J36" s="46"/>
+      <c r="K36" s="46"/>
+      <c r="L36" s="46"/>
+      <c r="M36" s="46"/>
+      <c r="N36" s="46"/>
+      <c r="O36" s="46"/>
+      <c r="P36" s="46"/>
+      <c r="Q36" s="67"/>
+      <c r="R36" s="67"/>
+      <c r="S36" s="67"/>
+      <c r="T36" s="67"/>
+      <c r="U36" s="67"/>
+      <c r="V36" s="67"/>
+      <c r="W36" s="67"/>
+      <c r="X36" s="67"/>
+      <c r="Y36" s="67"/>
+      <c r="Z36" s="46">
+        <v>2</v>
+      </c>
+      <c r="AA36" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB36" s="46"/>
+      <c r="AC36" s="46"/>
+      <c r="AD36" s="87"/>
+      <c r="AE36" s="10"/>
+    </row>
+    <row r="37" spans="1:33" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="49"/>
+      <c r="C37" s="46"/>
+      <c r="D37" s="46"/>
+      <c r="E37" s="46"/>
+      <c r="F37" s="46"/>
+      <c r="G37" s="46"/>
+      <c r="H37" s="46"/>
+      <c r="I37" s="46"/>
+      <c r="J37" s="46"/>
+      <c r="K37" s="46"/>
+      <c r="L37" s="46"/>
+      <c r="M37" s="46"/>
+      <c r="N37" s="46"/>
+      <c r="O37" s="46"/>
+      <c r="P37" s="46"/>
+      <c r="Q37" s="46"/>
+      <c r="R37" s="46"/>
+      <c r="S37" s="46"/>
+      <c r="T37" s="46"/>
+      <c r="U37" s="46"/>
+      <c r="V37" s="46"/>
+      <c r="W37" s="46"/>
+      <c r="X37" s="46"/>
+      <c r="Y37" s="46"/>
+      <c r="Z37" s="46"/>
+      <c r="AA37" s="46"/>
+      <c r="AB37" s="46"/>
+      <c r="AC37" s="46"/>
+      <c r="AD37" s="87"/>
+      <c r="AE37" s="10"/>
+    </row>
+    <row r="38" spans="1:33" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="49">
+        <f>B41/$Z$35</f>
+        <v>0</v>
+      </c>
+      <c r="C38" s="46">
+        <f>C41/$Z$35</f>
+        <v>0.25</v>
+      </c>
+      <c r="D38" s="46">
+        <f>D41/$Z$35</f>
+        <v>0.5</v>
+      </c>
+      <c r="E38" s="46">
+        <f>E41/$Z$35</f>
+        <v>0.75</v>
+      </c>
+      <c r="F38" s="46">
+        <f>F41/$Z$35</f>
+        <v>1</v>
+      </c>
+      <c r="G38" s="46">
+        <f>G41/$Z$35</f>
+        <v>1.25</v>
+      </c>
+      <c r="H38" s="46">
+        <f>H41/$Z$35</f>
+        <v>1.5</v>
+      </c>
+      <c r="I38" s="46">
+        <f>I41/$Z$35</f>
+        <v>1.75</v>
+      </c>
+      <c r="J38" s="46">
+        <f>J41/$Z$35</f>
+        <v>2</v>
+      </c>
+      <c r="K38" s="46">
+        <f>K41/$Z$35</f>
+        <v>2.25</v>
+      </c>
+      <c r="L38" s="46">
+        <f>L41/$Z$35</f>
+        <v>2.5</v>
+      </c>
+      <c r="M38" s="46"/>
+      <c r="N38" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="O38" s="46"/>
+      <c r="P38" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q38" s="46"/>
+      <c r="R38" s="46"/>
+      <c r="S38" s="46"/>
+      <c r="T38" s="46"/>
+      <c r="U38" s="46"/>
+      <c r="V38" s="46"/>
+      <c r="W38" s="46"/>
+      <c r="X38" s="46"/>
+      <c r="Y38" s="46"/>
+      <c r="Z38" s="46"/>
+      <c r="AA38" s="46"/>
+      <c r="AB38" s="70"/>
+      <c r="AC38" s="70"/>
+      <c r="AD38" s="88"/>
+    </row>
+    <row r="39" spans="1:33" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="49">
+        <f>MOD(MOD(B41, $Z$35) + $Z$36, $Z$35)</f>
+        <v>2</v>
+      </c>
+      <c r="C39" s="46">
+        <f>MOD(MOD(C41, $Z$35) + $Z$36, $Z$35)</f>
+        <v>3</v>
+      </c>
+      <c r="D39" s="46">
+        <f>MOD(MOD(D41, $Z$35) + $Z$36, $Z$35)</f>
+        <v>0</v>
+      </c>
+      <c r="E39" s="46">
+        <f>MOD(MOD(E41, $Z$35) + $Z$36, $Z$35)</f>
+        <v>1</v>
+      </c>
+      <c r="F39" s="46">
+        <f>MOD(MOD(F41, $Z$35) + $Z$36, $Z$35)</f>
+        <v>2</v>
+      </c>
+      <c r="G39" s="46">
+        <f>MOD(MOD(G41, $Z$35) + $Z$36, $Z$35)</f>
+        <v>3</v>
+      </c>
+      <c r="H39" s="46">
+        <f>MOD(MOD(H41, $Z$35) + $Z$36, $Z$35)</f>
+        <v>0</v>
+      </c>
+      <c r="I39" s="46">
+        <f>MOD(MOD(I41, $Z$35) + $Z$36, $Z$35)</f>
+        <v>1</v>
+      </c>
+      <c r="J39" s="46">
+        <f>MOD(MOD(J41, $Z$35) + $Z$36, $Z$35)</f>
+        <v>2</v>
+      </c>
+      <c r="K39" s="46">
+        <f>MOD(MOD(K41, $Z$35) + $Z$36, $Z$35)</f>
+        <v>3</v>
+      </c>
+      <c r="L39" s="46">
+        <f>MOD(MOD(L41, $Z$35) + $Z$36, $Z$35)</f>
+        <v>0</v>
+      </c>
+      <c r="M39" s="46"/>
+      <c r="N39" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="O39" s="46"/>
+      <c r="P39" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q39" s="46"/>
+      <c r="R39" s="46"/>
+      <c r="S39" s="46"/>
+      <c r="T39" s="46"/>
+      <c r="U39" s="46"/>
+      <c r="V39" s="46"/>
+      <c r="W39" s="46"/>
+      <c r="X39" s="46"/>
+      <c r="Y39" s="46"/>
+      <c r="Z39" s="46"/>
+      <c r="AA39" s="46"/>
+      <c r="AB39" s="70"/>
+      <c r="AC39" s="70"/>
+      <c r="AD39" s="88"/>
+    </row>
+    <row r="40" spans="1:33" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="49"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="46"/>
+      <c r="E40" s="46"/>
+      <c r="F40" s="46"/>
+      <c r="G40" s="46"/>
+      <c r="H40" s="46"/>
+      <c r="I40" s="46"/>
+      <c r="J40" s="46"/>
+      <c r="K40" s="46"/>
+      <c r="L40" s="46"/>
+      <c r="M40" s="46"/>
+      <c r="N40" s="46"/>
+      <c r="O40" s="46"/>
+      <c r="P40" s="46"/>
+      <c r="Q40" s="46"/>
+      <c r="R40" s="46"/>
+      <c r="S40" s="46"/>
+      <c r="T40" s="46"/>
+      <c r="U40" s="46"/>
+      <c r="V40" s="46"/>
+      <c r="W40" s="46"/>
+      <c r="X40" s="46"/>
+      <c r="Y40" s="46"/>
+      <c r="Z40" s="46"/>
+      <c r="AA40" s="46"/>
+      <c r="AB40" s="70"/>
+      <c r="AC40" s="70"/>
+      <c r="AD40" s="88"/>
+    </row>
+    <row r="41" spans="1:33" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="49">
+        <v>0</v>
+      </c>
+      <c r="C41" s="46">
+        <v>1</v>
+      </c>
+      <c r="D41" s="46">
+        <v>2</v>
+      </c>
+      <c r="E41" s="46">
+        <v>3</v>
+      </c>
+      <c r="F41" s="46">
+        <v>4</v>
+      </c>
+      <c r="G41" s="46">
+        <v>5</v>
+      </c>
+      <c r="H41" s="46">
+        <v>6</v>
+      </c>
+      <c r="I41" s="46">
+        <v>7</v>
+      </c>
+      <c r="J41" s="46">
+        <v>8</v>
+      </c>
+      <c r="K41" s="46">
+        <v>9</v>
+      </c>
+      <c r="L41" s="46">
+        <v>10</v>
+      </c>
+      <c r="M41" s="46"/>
+      <c r="N41" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="O41" s="46"/>
+      <c r="P41" s="46"/>
+      <c r="Q41" s="46"/>
+      <c r="R41" s="46"/>
+      <c r="S41" s="46"/>
+      <c r="T41" s="46"/>
+      <c r="U41" s="46"/>
+      <c r="V41" s="46"/>
+      <c r="W41" s="46"/>
+      <c r="X41" s="46"/>
+      <c r="Y41" s="46"/>
+      <c r="Z41" s="46"/>
+      <c r="AA41" s="46"/>
+      <c r="AB41" s="70"/>
+      <c r="AC41" s="70"/>
+      <c r="AD41" s="88"/>
+    </row>
+    <row r="42" spans="1:33" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="D42" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="E42" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="G42" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="H42" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="I42" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="J42" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="K42" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="L42" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="M42" s="46"/>
+      <c r="N42" s="67"/>
+      <c r="O42" s="46"/>
+      <c r="P42" s="46"/>
+      <c r="Q42" s="46"/>
+      <c r="R42" s="67"/>
+      <c r="S42" s="46"/>
+      <c r="T42" s="46"/>
+      <c r="U42" s="46"/>
+      <c r="V42" s="46"/>
+      <c r="W42" s="46"/>
+      <c r="X42" s="46"/>
+      <c r="Y42" s="46"/>
+      <c r="Z42" s="46"/>
+      <c r="AA42" s="46"/>
+      <c r="AB42" s="70"/>
+      <c r="AC42" s="70"/>
+      <c r="AD42" s="88"/>
+    </row>
+    <row r="43" spans="1:33" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="49"/>
+      <c r="C43" s="46"/>
+      <c r="D43" s="46"/>
+      <c r="E43" s="46"/>
+      <c r="F43" s="46"/>
+      <c r="G43" s="46"/>
+      <c r="H43" s="46"/>
+      <c r="I43" s="46"/>
+      <c r="J43" s="46"/>
+      <c r="K43" s="46"/>
+      <c r="L43" s="46"/>
+      <c r="M43" s="46"/>
+      <c r="N43" s="46"/>
+      <c r="O43" s="46"/>
+      <c r="P43" s="46"/>
+      <c r="Q43" s="46"/>
+      <c r="R43" s="46"/>
+      <c r="S43" s="46"/>
+      <c r="T43" s="46"/>
+      <c r="U43" s="46"/>
+      <c r="V43" s="46"/>
+      <c r="W43" s="46"/>
+      <c r="X43" s="46"/>
+      <c r="Y43" s="46"/>
+      <c r="Z43" s="46"/>
+      <c r="AA43" s="46"/>
+      <c r="AB43" s="70"/>
+      <c r="AC43" s="70"/>
+      <c r="AD43" s="88"/>
+    </row>
+    <row r="44" spans="1:33" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="C44" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="D44" s="46"/>
+      <c r="E44" s="46"/>
+      <c r="F44" s="46"/>
+      <c r="G44" s="46"/>
+      <c r="H44" s="46"/>
+      <c r="I44" s="46"/>
+      <c r="J44" s="46"/>
+      <c r="K44" s="46"/>
+      <c r="L44" s="46"/>
+      <c r="M44" s="46"/>
+      <c r="N44" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="O44" s="46"/>
+      <c r="P44" s="46">
+        <v>2</v>
+      </c>
+      <c r="Q44" s="46"/>
+      <c r="R44" s="46"/>
+      <c r="S44" s="46"/>
+      <c r="T44" s="46"/>
+      <c r="U44" s="46"/>
+      <c r="V44" s="46"/>
+      <c r="W44" s="46"/>
+      <c r="X44" s="46"/>
+      <c r="Y44" s="46"/>
+      <c r="Z44" s="46"/>
+      <c r="AA44" s="46"/>
+      <c r="AB44" s="70"/>
+      <c r="AC44" s="70"/>
+      <c r="AD44" s="88"/>
+    </row>
+    <row r="45" spans="1:33" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="49"/>
+      <c r="C45" s="46"/>
+      <c r="D45" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="E45" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="F45" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="G45" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="H45" s="46"/>
+      <c r="I45" s="46"/>
+      <c r="J45" s="46"/>
+      <c r="K45" s="46"/>
+      <c r="L45" s="46"/>
+      <c r="M45" s="46"/>
+      <c r="N45" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="O45" s="46"/>
+      <c r="P45" s="46"/>
+      <c r="Q45" s="46"/>
+      <c r="R45" s="46"/>
+      <c r="S45" s="46"/>
+      <c r="T45" s="46"/>
+      <c r="U45" s="46"/>
+      <c r="V45" s="46"/>
+      <c r="W45" s="46"/>
+      <c r="X45" s="46"/>
+      <c r="Y45" s="46"/>
+      <c r="Z45" s="46"/>
+      <c r="AA45" s="46"/>
+      <c r="AB45" s="70"/>
+      <c r="AC45" s="70"/>
+      <c r="AD45" s="88"/>
+    </row>
+    <row r="46" spans="1:33" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="49"/>
+      <c r="C46" s="46"/>
+      <c r="D46" s="46"/>
+      <c r="E46" s="46"/>
+      <c r="F46" s="46"/>
+      <c r="G46" s="46"/>
+      <c r="H46" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="I46" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="J46" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="K46" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="L46" s="46"/>
+      <c r="M46" s="46"/>
+      <c r="N46" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="O46" s="46"/>
+      <c r="P46" s="46"/>
+      <c r="Q46" s="46"/>
+      <c r="R46" s="46"/>
+      <c r="S46" s="46"/>
+      <c r="T46" s="46"/>
+      <c r="U46" s="46"/>
+      <c r="V46" s="46"/>
+      <c r="W46" s="46"/>
+      <c r="X46" s="46"/>
+      <c r="Y46" s="46"/>
+      <c r="Z46" s="46"/>
+      <c r="AA46" s="46"/>
+      <c r="AB46" s="70"/>
+      <c r="AC46" s="70"/>
+      <c r="AD46" s="88"/>
+    </row>
+    <row r="47" spans="1:33" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="53"/>
+      <c r="C47" s="55"/>
+      <c r="D47" s="55"/>
+      <c r="E47" s="55"/>
+      <c r="F47" s="55"/>
+      <c r="G47" s="55"/>
+      <c r="H47" s="55"/>
+      <c r="I47" s="55"/>
+      <c r="J47" s="55"/>
+      <c r="K47" s="55"/>
+      <c r="L47" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="M47" s="55"/>
+      <c r="N47" s="55" t="s">
+        <v>60</v>
+      </c>
+      <c r="O47" s="55"/>
+      <c r="P47" s="55"/>
+      <c r="Q47" s="55"/>
+      <c r="R47" s="55"/>
+      <c r="S47" s="55"/>
+      <c r="T47" s="55"/>
+      <c r="U47" s="55"/>
+      <c r="V47" s="55"/>
+      <c r="W47" s="55"/>
+      <c r="X47" s="55"/>
+      <c r="Y47" s="55"/>
+      <c r="Z47" s="55"/>
+      <c r="AA47" s="55"/>
+      <c r="AB47" s="85"/>
+      <c r="AC47" s="85"/>
+      <c r="AD47" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="4">
